--- a/raw-data/All Treatments/combined_raw_meta.xlsx
+++ b/raw-data/All Treatments/combined_raw_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E5DB1E-6C83-EA41-827A-A3BA07BC4460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB42159-5400-EB4E-94AE-557D06196DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-23300" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="-80" yWindow="-23300" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>plants/1m</t>
+  </si>
+  <si>
+    <t>average of 4 100-seed weights</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,7 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,15 +637,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC911B1F-0985-CF47-B3CA-2511DBC779A6}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -706,7 +708,7 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -748,6 +750,14 @@
       </c>
       <c r="B13" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,7 +827,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>41</v>
       </c>
     </row>

--- a/raw-data/All Treatments/combined_raw_meta.xlsx
+++ b/raw-data/All Treatments/combined_raw_meta.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB42159-5400-EB4E-94AE-557D06196DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EEC01B-B360-1C44-8139-40CB06DBD8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-23300" windowWidth="34560" windowHeight="20440" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="20440" yWindow="-20440" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$N$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$N$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="17" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -205,6 +209,18 @@
   </si>
   <si>
     <t>average of 4 100-seed weights</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of interrow_weed_biomass</t>
+  </si>
+  <si>
+    <t>Average of weed_biomass</t>
   </si>
 </sst>
 </file>
@@ -277,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,6 +319,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,6 +339,1169 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eric Youngerman" refreshedDate="45713.586411111108" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{E90821CD-D83F-DB4C-B29F-50D3C9CE1296}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N61" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="location" numFmtId="0">
+      <sharedItems count="3">
+        <s v="field x"/>
+        <s v="field O2 west"/>
+        <s v="field O2 east"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2023" maxValue="2024"/>
+    </cacheField>
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems count="5">
+        <s v="TIM"/>
+        <s v="TIC"/>
+        <s v="RIM"/>
+        <s v="RNO"/>
+        <s v="RIC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="block" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="plot" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="405"/>
+    </cacheField>
+    <cacheField name="bean_emergence" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="36" maxValue="54"/>
+    </cacheField>
+    <cacheField name="bean_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="199.87" maxValue="508.65499999999997"/>
+    </cacheField>
+    <cacheField name="intrarow_weed_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="65.424999999999997"/>
+    </cacheField>
+    <cacheField name="interrow_weed_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="45.734999999999999"/>
+    </cacheField>
+    <cacheField name="weed_biomass" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="79.16"/>
+    </cacheField>
+    <cacheField name="bean_population" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.5" maxValue="54"/>
+    </cacheField>
+    <cacheField name="bean_yield" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="412.59" maxValue="790"/>
+    </cacheField>
+    <cacheField name="seed_weight" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.145" maxValue="19.4925"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <s v="CU_B1_P101"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="101"/>
+    <n v="46.5"/>
+    <n v="223.74"/>
+    <n v="19"/>
+    <n v="44.489999999999995"/>
+    <n v="63.489999999999995"/>
+    <n v="34.5"/>
+    <n v="417.21"/>
+    <n v="17.119999999999997"/>
+  </r>
+  <r>
+    <s v="CU_B1_P102"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <n v="42.5"/>
+    <n v="267.45999999999998"/>
+    <n v="30.975000000000001"/>
+    <n v="0.72"/>
+    <n v="31.695"/>
+    <n v="39.5"/>
+    <n v="565.54"/>
+    <n v="17.475000000000001"/>
+  </r>
+  <r>
+    <s v="CU_B1_P103"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="103"/>
+    <n v="36.5"/>
+    <n v="217.89"/>
+    <n v="0.95"/>
+    <n v="6.89"/>
+    <n v="7.84"/>
+    <n v="37.5"/>
+    <n v="449.93"/>
+    <n v="16.752499999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P104"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="104"/>
+    <n v="41"/>
+    <n v="207.67500000000001"/>
+    <n v="0.65999999999999992"/>
+    <n v="45.734999999999999"/>
+    <n v="46.394999999999996"/>
+    <n v="35"/>
+    <n v="412.59"/>
+    <n v="16.145"/>
+  </r>
+  <r>
+    <s v="CU_B1_P105"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="105"/>
+    <n v="41"/>
+    <n v="230.28500000000003"/>
+    <n v="0.495"/>
+    <n v="22.024999999999999"/>
+    <n v="22.52"/>
+    <n v="39"/>
+    <n v="473.79"/>
+    <n v="17.047499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P201"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="201"/>
+    <n v="36.5"/>
+    <n v="208.10500000000002"/>
+    <n v="6.3950000000000005"/>
+    <n v="19.46"/>
+    <n v="25.855"/>
+    <n v="33.5"/>
+    <n v="484.04"/>
+    <n v="17.149999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P202"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <n v="39"/>
+    <n v="232.80500000000001"/>
+    <n v="1.4350000000000001"/>
+    <n v="22.19"/>
+    <n v="23.625"/>
+    <n v="34"/>
+    <n v="556.76"/>
+    <n v="16.392500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P203"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="203"/>
+    <n v="40"/>
+    <n v="228.69499999999999"/>
+    <n v="13.18"/>
+    <n v="7.625"/>
+    <n v="20.805"/>
+    <n v="32"/>
+    <n v="497.82"/>
+    <n v="16.517500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P204"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="204"/>
+    <n v="45.5"/>
+    <n v="268.27"/>
+    <n v="65.424999999999997"/>
+    <n v="0"/>
+    <n v="65.424999999999997"/>
+    <n v="41.5"/>
+    <n v="583.53"/>
+    <n v="17.337499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P205"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="205"/>
+    <n v="44.5"/>
+    <n v="321.375"/>
+    <n v="21.72"/>
+    <n v="23.11"/>
+    <n v="44.83"/>
+    <n v="40.5"/>
+    <n v="485.35"/>
+    <n v="16.794999999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P301"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="301"/>
+    <n v="46"/>
+    <n v="269.54000000000002"/>
+    <n v="35.260000000000005"/>
+    <n v="14.13"/>
+    <n v="49.390000000000008"/>
+    <n v="36.5"/>
+    <n v="478.85"/>
+    <n v="17.8475"/>
+  </r>
+  <r>
+    <s v="CU_B1_P302"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="302"/>
+    <n v="41"/>
+    <n v="346.17499999999995"/>
+    <n v="37.159999999999997"/>
+    <n v="0"/>
+    <n v="37.159999999999997"/>
+    <n v="37.5"/>
+    <n v="481.27"/>
+    <n v="16.892500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P303"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="303"/>
+    <n v="36.5"/>
+    <n v="266.14"/>
+    <n v="13.940000000000001"/>
+    <n v="14.469999999999999"/>
+    <n v="28.41"/>
+    <n v="27.5"/>
+    <n v="495.61"/>
+    <n v="17.692499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P304"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="304"/>
+    <n v="39.5"/>
+    <n v="252"/>
+    <n v="3.37"/>
+    <n v="2.6999999999999997"/>
+    <n v="6.07"/>
+    <n v="35"/>
+    <n v="686.07"/>
+    <n v="17.21"/>
+  </r>
+  <r>
+    <s v="CU_B1_P305"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="305"/>
+    <n v="38.5"/>
+    <n v="236.08499999999998"/>
+    <n v="1.595"/>
+    <n v="0.73"/>
+    <n v="2.3250000000000002"/>
+    <n v="32.5"/>
+    <n v="556.48"/>
+    <n v="16.297499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P401"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="401"/>
+    <n v="43.5"/>
+    <n v="328.995"/>
+    <n v="13.18"/>
+    <n v="2.7050000000000001"/>
+    <n v="15.885"/>
+    <n v="40.5"/>
+    <n v="575.66999999999996"/>
+    <n v="18.105"/>
+  </r>
+  <r>
+    <s v="CU_B1_P402"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="402"/>
+    <n v="36"/>
+    <n v="269.745"/>
+    <n v="1.155"/>
+    <n v="10.41"/>
+    <n v="11.565"/>
+    <n v="34.5"/>
+    <n v="457.43"/>
+    <n v="16.692499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P403"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="403"/>
+    <n v="36"/>
+    <n v="211.89"/>
+    <n v="7.67"/>
+    <n v="9.1649999999999991"/>
+    <n v="16.835000000000001"/>
+    <n v="39"/>
+    <n v="549.80999999999995"/>
+    <n v="16.734999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P404"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="404"/>
+    <n v="45.5"/>
+    <n v="245.54"/>
+    <n v="36.414999999999999"/>
+    <n v="0.05"/>
+    <n v="36.464999999999996"/>
+    <n v="41.5"/>
+    <n v="487.11"/>
+    <n v="17.310000000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P405"/>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="405"/>
+    <n v="43"/>
+    <n v="199.87"/>
+    <n v="56.46"/>
+    <n v="22.7"/>
+    <n v="79.16"/>
+    <n v="43.5"/>
+    <n v="434.21"/>
+    <n v="17.059999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P101"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="101"/>
+    <n v="47.5"/>
+    <n v="508.65499999999997"/>
+    <n v="2.0550000000000002"/>
+    <n v="10.035"/>
+    <n v="12.09"/>
+    <n v="45.5"/>
+    <n v="612"/>
+    <n v="19.122500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P102"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <n v="47.5"/>
+    <n v="503.56"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="47.5"/>
+    <n v="790"/>
+    <n v="19.29"/>
+  </r>
+  <r>
+    <s v="CU_B1_P103"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="103"/>
+    <n v="44.5"/>
+    <n v="378.02499999999998"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.05"/>
+    <n v="44"/>
+    <n v="641"/>
+    <n v="18.079999999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P104"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="104"/>
+    <n v="40"/>
+    <n v="423.45"/>
+    <n v="0"/>
+    <n v="9.5000000000000001E-2"/>
+    <n v="9.5000000000000001E-2"/>
+    <n v="46"/>
+    <n v="660"/>
+    <n v="18.2425"/>
+  </r>
+  <r>
+    <s v="CU_B1_P105"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="105"/>
+    <n v="40"/>
+    <n v="414.125"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="46.5"/>
+    <n v="624"/>
+    <n v="17.77"/>
+  </r>
+  <r>
+    <s v="CU_B1_P201"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="201"/>
+    <n v="47.5"/>
+    <n v="415.09500000000003"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="670"/>
+    <n v="18.309999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P202"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <n v="43"/>
+    <n v="437.875"/>
+    <n v="0"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="43.5"/>
+    <n v="638"/>
+    <n v="18.704999999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P203"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="203"/>
+    <n v="41.5"/>
+    <n v="409.44500000000005"/>
+    <n v="0"/>
+    <n v="0.18"/>
+    <n v="0.18"/>
+    <n v="44"/>
+    <n v="646"/>
+    <n v="17.9375"/>
+  </r>
+  <r>
+    <s v="CU_B1_P204"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="204"/>
+    <n v="47"/>
+    <n v="481.32499999999999"/>
+    <n v="8.5000000000000006E-2"/>
+    <n v="0.02"/>
+    <n v="0.10500000000000001"/>
+    <n v="49"/>
+    <n v="662"/>
+    <n v="18.942499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P205"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="205"/>
+    <n v="46"/>
+    <n v="417.31"/>
+    <n v="3.0649999999999999"/>
+    <n v="9.01"/>
+    <n v="12.074999999999999"/>
+    <n v="46"/>
+    <n v="644"/>
+    <n v="18.369999999999997"/>
+  </r>
+  <r>
+    <s v="CU_B1_P301"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="301"/>
+    <n v="47.5"/>
+    <n v="456.25"/>
+    <n v="4.42"/>
+    <n v="6.5250000000000004"/>
+    <n v="10.945"/>
+    <n v="37"/>
+    <n v="588"/>
+    <n v="17.094999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P302"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="302"/>
+    <n v="41.5"/>
+    <n v="496.08500000000004"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="38.5"/>
+    <n v="676"/>
+    <n v="19.395"/>
+  </r>
+  <r>
+    <s v="CU_B1_P303"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="303"/>
+    <n v="53.5"/>
+    <n v="342.25"/>
+    <n v="10.765000000000001"/>
+    <n v="6.5"/>
+    <n v="17.265000000000001"/>
+    <n v="44.5"/>
+    <n v="672"/>
+    <n v="19.012499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P304"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="304"/>
+    <n v="54"/>
+    <n v="371.88"/>
+    <n v="12.455"/>
+    <n v="2.1850000000000001"/>
+    <n v="14.64"/>
+    <n v="46"/>
+    <n v="604"/>
+    <n v="19.022500000000001"/>
+  </r>
+  <r>
+    <s v="CU_B1_P305"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="305"/>
+    <n v="42.5"/>
+    <n v="374.745"/>
+    <n v="5.29"/>
+    <n v="40.31"/>
+    <n v="45.6"/>
+    <n v="48.5"/>
+    <n v="586"/>
+    <n v="17.952500000000001"/>
+  </r>
+  <r>
+    <s v="CU_B1_P401"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="401"/>
+    <n v="42"/>
+    <n v="322.3"/>
+    <n v="0.77499999999999991"/>
+    <n v="36.409999999999997"/>
+    <n v="37.184999999999995"/>
+    <n v="39.5"/>
+    <n v="534"/>
+    <n v="18.0975"/>
+  </r>
+  <r>
+    <s v="CU_B1_P402"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="402"/>
+    <n v="43.5"/>
+    <n v="359.185"/>
+    <n v="0"/>
+    <n v="3.7199999999999998"/>
+    <n v="3.7199999999999998"/>
+    <n v="44.5"/>
+    <n v="548"/>
+    <n v="18.079999999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P403"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="403"/>
+    <n v="44.5"/>
+    <n v="359.38"/>
+    <n v="0.52500000000000002"/>
+    <n v="2.16"/>
+    <n v="2.6850000000000001"/>
+    <n v="38"/>
+    <n v="586"/>
+    <n v="18.052500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P404"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="404"/>
+    <n v="45"/>
+    <n v="428"/>
+    <n v="2.23"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="2.2999999999999998"/>
+    <n v="50"/>
+    <n v="678"/>
+    <n v="18.952500000000001"/>
+  </r>
+  <r>
+    <s v="CU_B1_P405"/>
+    <x v="1"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="405"/>
+    <n v="50"/>
+    <n v="470.08499999999998"/>
+    <n v="0.255"/>
+    <n v="3.6349999999999998"/>
+    <n v="3.8899999999999997"/>
+    <n v="45.5"/>
+    <n v="660"/>
+    <n v="18.532499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P101"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="101"/>
+    <n v="51.5"/>
+    <n v="476.20499999999998"/>
+    <n v="0.70500000000000007"/>
+    <n v="1.76"/>
+    <n v="2.4649999999999999"/>
+    <n v="44.5"/>
+    <n v="724"/>
+    <n v="18.305"/>
+  </r>
+  <r>
+    <s v="CU_B1_P102"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <n v="49.5"/>
+    <n v="447.4"/>
+    <n v="0.62"/>
+    <n v="0"/>
+    <n v="0.62"/>
+    <n v="47.5"/>
+    <n v="690"/>
+    <n v="19.094999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P103"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="103"/>
+    <n v="43"/>
+    <n v="390.67"/>
+    <n v="0"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="36.5"/>
+    <n v="638"/>
+    <n v="17.587500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P104"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="104"/>
+    <n v="45.5"/>
+    <n v="410.72500000000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="49"/>
+    <n v="662"/>
+    <n v="17.649999999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P105"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="105"/>
+    <n v="38.5"/>
+    <n v="357.96499999999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="46.5"/>
+    <n v="700"/>
+    <n v="17.990000000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P201"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="201"/>
+    <n v="46.5"/>
+    <n v="423.77499999999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="46"/>
+    <n v="626"/>
+    <n v="18.3125"/>
+  </r>
+  <r>
+    <s v="CU_B1_P202"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <n v="43.5"/>
+    <n v="393.08499999999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="44"/>
+    <n v="686"/>
+    <n v="17.740000000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P203"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="203"/>
+    <n v="43"/>
+    <n v="426.2"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.28000000000000003"/>
+    <n v="0.30500000000000005"/>
+    <n v="47"/>
+    <n v="690"/>
+    <n v="18.169999999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P204"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="204"/>
+    <n v="51.5"/>
+    <n v="447.33"/>
+    <n v="0.30000000000000004"/>
+    <n v="0"/>
+    <n v="0.30000000000000004"/>
+    <n v="46.5"/>
+    <n v="662"/>
+    <n v="19.087499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P205"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="205"/>
+    <n v="45"/>
+    <n v="450.995"/>
+    <n v="1.125"/>
+    <n v="17.740000000000002"/>
+    <n v="18.865000000000002"/>
+    <n v="39.5"/>
+    <n v="530"/>
+    <n v="18.11"/>
+  </r>
+  <r>
+    <s v="CU_B1_P301"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="301"/>
+    <n v="46.5"/>
+    <n v="464"/>
+    <n v="0.20499999999999999"/>
+    <n v="0"/>
+    <n v="0.20499999999999999"/>
+    <n v="42"/>
+    <n v="642"/>
+    <n v="18.6175"/>
+  </r>
+  <r>
+    <s v="CU_B1_P302"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="302"/>
+    <n v="46.5"/>
+    <n v="445.995"/>
+    <n v="11.75"/>
+    <n v="5.87"/>
+    <n v="17.62"/>
+    <n v="37.5"/>
+    <n v="498"/>
+    <n v="17.655000000000001"/>
+  </r>
+  <r>
+    <s v="CU_B1_P303"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="303"/>
+    <n v="43"/>
+    <n v="469.65499999999997"/>
+    <n v="0.11000000000000001"/>
+    <n v="0.05"/>
+    <n v="0.16000000000000003"/>
+    <n v="47"/>
+    <n v="688"/>
+    <n v="17.8125"/>
+  </r>
+  <r>
+    <s v="CU_B1_P304"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="304"/>
+    <n v="50"/>
+    <n v="416.95"/>
+    <n v="0"/>
+    <n v="0.73"/>
+    <n v="0.73"/>
+    <n v="54"/>
+    <n v="712"/>
+    <n v="17.872499999999999"/>
+  </r>
+  <r>
+    <s v="CU_B1_P305"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="305"/>
+    <n v="44.5"/>
+    <n v="472.68"/>
+    <n v="0"/>
+    <n v="23"/>
+    <n v="23"/>
+    <n v="45.5"/>
+    <n v="666"/>
+    <n v="17.732499999999998"/>
+  </r>
+  <r>
+    <s v="CU_B1_P401"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="401"/>
+    <n v="41"/>
+    <n v="437.55"/>
+    <n v="0"/>
+    <n v="0.29499999999999998"/>
+    <n v="0.29499999999999998"/>
+    <n v="53"/>
+    <n v="730"/>
+    <n v="18.12"/>
+  </r>
+  <r>
+    <s v="CU_B1_P402"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="402"/>
+    <n v="37.5"/>
+    <n v="396.495"/>
+    <n v="0"/>
+    <n v="1.95"/>
+    <n v="1.95"/>
+    <n v="40.5"/>
+    <n v="688"/>
+    <n v="17.652499999999996"/>
+  </r>
+  <r>
+    <s v="CU_B1_P403"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="403"/>
+    <n v="42.5"/>
+    <n v="378.375"/>
+    <n v="0"/>
+    <n v="3.36"/>
+    <n v="3.36"/>
+    <n v="44.5"/>
+    <n v="614"/>
+    <n v="17.892500000000002"/>
+  </r>
+  <r>
+    <s v="CU_B1_P404"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="404"/>
+    <n v="47.5"/>
+    <n v="434.96"/>
+    <n v="0"/>
+    <n v="0.20499999999999999"/>
+    <n v="0.20499999999999999"/>
+    <n v="45"/>
+    <n v="678"/>
+    <n v="18.8125"/>
+  </r>
+  <r>
+    <s v="CU_B1_P405"/>
+    <x v="2"/>
+    <n v="2024"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="405"/>
+    <n v="36.5"/>
+    <n v="426.1"/>
+    <n v="1.335"/>
+    <n v="3.6999999999999997"/>
+    <n v="5.0350000000000001"/>
+    <n v="45.5"/>
+    <n v="656"/>
+    <n v="19.4925"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FF0AB-E0DA-3845-9121-C7557FC12FFF}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of weed_biomass" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of interrow_weed_biomass" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC911B1F-0985-CF47-B3CA-2511DBC779A6}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -766,11 +1950,460 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F522FBCC-0FB2-6549-B950-AB7E8E07A8D9}">
+  <dimension ref="A3:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13">
+        <v>12.297916666666666</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8.4929166666666678</v>
+      </c>
+      <c r="G4">
+        <v>8.49</v>
+      </c>
+      <c r="H4">
+        <f>G4/0.5</f>
+        <v>16.98</v>
+      </c>
+      <c r="I4">
+        <f>H4*10</f>
+        <v>169.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.11375</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.11375</v>
+      </c>
+      <c r="E5">
+        <f>D5/0.5</f>
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="F5">
+        <f>E5*10</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="G5">
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="H5">
+        <f>G5/0.5</f>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="I5">
+        <f>H5*10</f>
+        <v>1.7249999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13">
+        <v>13.612499999999999</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10.727499999999999</v>
+      </c>
+      <c r="D6">
+        <v>13.612500000000001</v>
+      </c>
+      <c r="E6">
+        <f>D6/0.5</f>
+        <v>27.225000000000001</v>
+      </c>
+      <c r="F6">
+        <f>E6*10</f>
+        <v>272.25</v>
+      </c>
+      <c r="G6">
+        <v>10.727499999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H12" si="0">G6/0.5</f>
+        <v>21.454999999999998</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I12" si="1">H6*10</f>
+        <v>214.54999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13">
+        <v>23.1675</v>
+      </c>
+      <c r="C7" s="13">
+        <v>14.664999999999999</v>
+      </c>
+      <c r="D7">
+        <v>23.1675</v>
+      </c>
+      <c r="E7">
+        <f>D7/0.5</f>
+        <v>46.335000000000001</v>
+      </c>
+      <c r="F7">
+        <f>E7*10</f>
+        <v>463.35</v>
+      </c>
+      <c r="G7">
+        <v>14.664999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>29.33</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>293.29999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13">
+        <v>6.1625000000000005</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2.9791666666666665</v>
+      </c>
+      <c r="G8">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>5.9580000000000002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>59.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1.2112499999999999</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.21</v>
+      </c>
+      <c r="E9">
+        <f>D9/0.5</f>
+        <v>2.42</v>
+      </c>
+      <c r="F9">
+        <f>E9*10</f>
+        <v>24.2</v>
+      </c>
+      <c r="G9">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2.41</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="13">
+        <v>4.3887499999999999</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1.1375000000000002</v>
+      </c>
+      <c r="D10">
+        <v>4.38</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E11" si="2">D10/0.5</f>
+        <v>8.76</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F11" si="3">E10*10</f>
+        <v>87.6</v>
+      </c>
+      <c r="G10">
+        <v>1.1375</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13">
+        <v>12.887500000000001</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6.5949999999999998</v>
+      </c>
+      <c r="D11">
+        <v>12.8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>6.5949999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>13.19</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13">
+        <v>13.191666666666665</v>
+      </c>
+      <c r="C12" s="13">
+        <v>12.347083333333332</v>
+      </c>
+      <c r="G12">
+        <v>12.347</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>24.693999999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>246.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="13">
+        <v>6.2374999999999998</v>
+      </c>
+      <c r="C13" s="13">
+        <v>6.2374999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13">
+        <v>12.36</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11.0375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>20.977499999999999</v>
+      </c>
+      <c r="C15" s="13">
+        <v>19.766249999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13">
+        <v>15.993333333333332</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.57791666666666663</v>
+      </c>
+      <c r="G16">
+        <v>0.57791666666666663</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="4">G16/0.5</f>
+        <v>1.1558333333333333</v>
+      </c>
+      <c r="I16">
+        <f>H16*10</f>
+        <v>11.558333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4.6862500000000002</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1.51875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.60749999999999993</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="13">
+        <v>42.686250000000001</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="13">
+        <v>25.203333333333333</v>
+      </c>
+      <c r="C20" s="13">
+        <v>13.069583333333332</v>
+      </c>
+      <c r="G20">
+        <v>13.069000000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="5">G20/0.5</f>
+        <v>26.138000000000002</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="6">H20*10</f>
+        <v>261.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13">
+        <v>6.6425000000000001</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="13">
+        <v>9.75</v>
+      </c>
+      <c r="C22" s="13">
+        <v>7.3012499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="13">
+        <v>59.217500000000001</v>
+      </c>
+      <c r="C23" s="13">
+        <v>26.107499999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="13">
+        <v>14.569750000000004</v>
+      </c>
+      <c r="C24" s="13">
+        <v>7.4933333333333341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw-data/All Treatments/combined_raw_meta.xlsx
+++ b/raw-data/All Treatments/combined_raw_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EEC01B-B360-1C44-8139-40CB06DBD8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66111E-F329-8144-880B-31E804A72C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20440" yWindow="-20440" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
+    <workbookView xWindow="19520" yWindow="-21580" windowWidth="34560" windowHeight="20440" activeTab="2" xr2:uid="{BC6E1F37-F489-F945-938B-9CB0E83CEE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Average of weed_biomass</t>
+  </si>
+  <si>
+    <t>field v</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,7 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,7 +1376,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FF0AB-E0DA-3845-9121-C7557FC12FFF}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C54FF0AB-E0DA-3845-9121-C7557FC12FFF}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1953,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F522FBCC-0FB2-6549-B950-AB7E8E07A8D9}">
   <dimension ref="A3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -1979,10 +1981,10 @@
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>12.297916666666666</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>8.4929166666666678</v>
       </c>
       <c r="G4">
@@ -2001,10 +2003,10 @@
       <c r="A5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>0.11375</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>8.6249999999999993E-2</v>
       </c>
       <c r="D5">
@@ -2034,10 +2036,10 @@
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>13.612499999999999</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>10.727499999999999</v>
       </c>
       <c r="D6">
@@ -2067,10 +2069,10 @@
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>23.1675</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>14.664999999999999</v>
       </c>
       <c r="D7">
@@ -2100,10 +2102,10 @@
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>6.1625000000000005</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <v>2.9791666666666665</v>
       </c>
       <c r="G8">
@@ -2122,10 +2124,10 @@
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>1.2112499999999999</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>1.2050000000000001</v>
       </c>
       <c r="D9">
@@ -2155,10 +2157,10 @@
       <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>4.3887499999999999</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>1.1375000000000002</v>
       </c>
       <c r="D10">
@@ -2188,10 +2190,10 @@
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>12.887500000000001</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11">
         <v>6.5949999999999998</v>
       </c>
       <c r="D11">
@@ -2221,10 +2223,10 @@
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>13.191666666666665</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12">
         <v>12.347083333333332</v>
       </c>
       <c r="G12">
@@ -2243,10 +2245,10 @@
       <c r="A13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>6.2374999999999998</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13">
         <v>6.2374999999999998</v>
       </c>
     </row>
@@ -2254,10 +2256,10 @@
       <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>12.36</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>11.0375</v>
       </c>
     </row>
@@ -2265,10 +2267,10 @@
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>20.977499999999999</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <v>19.766249999999999</v>
       </c>
     </row>
@@ -2276,10 +2278,10 @@
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>15.993333333333332</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>0.57791666666666663</v>
       </c>
       <c r="G16">
@@ -2298,10 +2300,10 @@
       <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17">
         <v>4.6862500000000002</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17">
         <v>1.51875</v>
       </c>
     </row>
@@ -2309,10 +2311,10 @@
       <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18">
         <v>0.60749999999999993</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18">
         <v>2.2500000000000003E-2</v>
       </c>
     </row>
@@ -2320,10 +2322,10 @@
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19">
         <v>42.686250000000001</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19">
         <v>0.1925</v>
       </c>
     </row>
@@ -2331,10 +2333,10 @@
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20">
         <v>25.203333333333333</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20">
         <v>13.069583333333332</v>
       </c>
       <c r="G20">
@@ -2353,10 +2355,10 @@
       <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21">
         <v>6.6425000000000001</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21">
         <v>5.8000000000000007</v>
       </c>
     </row>
@@ -2364,10 +2366,10 @@
       <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22">
         <v>9.75</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22">
         <v>7.3012499999999996</v>
       </c>
     </row>
@@ -2375,10 +2377,10 @@
       <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23">
         <v>59.217500000000001</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23">
         <v>26.107499999999998</v>
       </c>
     </row>
@@ -2386,10 +2388,10 @@
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24">
         <v>14.569750000000004</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24">
         <v>7.4933333333333341</v>
       </c>
     </row>
@@ -2402,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD3FB9F-C7C0-8845-8916-2E1AAB9BD4F0}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6">
         <v>2023</v>
@@ -2513,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6">
         <v>2023</v>
@@ -2557,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6">
         <v>2023</v>
@@ -2601,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6">
         <v>2023</v>
@@ -2645,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
         <v>2023</v>
@@ -2689,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6">
         <v>2023</v>
@@ -2733,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6">
         <v>2023</v>
@@ -2777,7 +2779,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C9" s="6">
         <v>2023</v>
@@ -2821,7 +2823,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6">
         <v>2023</v>
@@ -2865,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6">
         <v>2023</v>
@@ -2909,7 +2911,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>2023</v>
@@ -2953,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6">
         <v>2023</v>
@@ -2997,7 +2999,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6">
         <v>2023</v>
@@ -3041,7 +3043,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6">
         <v>2023</v>
@@ -3085,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6">
         <v>2023</v>
@@ -3129,7 +3131,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6">
         <v>2023</v>
@@ -3173,7 +3175,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6">
         <v>2023</v>
@@ -3217,7 +3219,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6">
         <v>2023</v>
@@ -3261,7 +3263,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>2023</v>
@@ -3305,7 +3307,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6">
         <v>2023</v>
